--- a/qt/DataExporter/data/test.xlsx
+++ b/qt/DataExporter/data/test.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="27">
   <si>
     <t>#col2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,35 +86,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>#*键列3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#普通列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#^testnokey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>#^test3keys</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#*键列3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#普通列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试值3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#^testnokey</t>
+    <t>#$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#*键列1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通列1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -463,8 +471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D16" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22:R51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -598,7 +606,7 @@
         <v>7</v>
       </c>
       <c r="G9" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="H9" t="s">
         <v>12</v>
@@ -776,29 +784,35 @@
   <dimension ref="H21:O45"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="J21" sqref="J21:O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="10" max="10" width="17.625" customWidth="1"/>
+    <col min="11" max="11" width="20.125" customWidth="1"/>
+    <col min="12" max="12" width="15.75" customWidth="1"/>
+    <col min="13" max="13" width="15.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="21" spans="10:15" x14ac:dyDescent="0.15">
       <c r="J21" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="K21" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="L21" t="s">
         <v>7</v>
       </c>
       <c r="M21" t="s">
+        <v>17</v>
+      </c>
+      <c r="N21" t="s">
         <v>18</v>
       </c>
-      <c r="N21" t="s">
-        <v>19</v>
-      </c>
       <c r="O21" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="10:15" x14ac:dyDescent="0.15">
@@ -808,11 +822,11 @@
       <c r="K22">
         <v>1</v>
       </c>
-      <c r="L22" t="s">
-        <v>9</v>
+      <c r="L22">
+        <v>1</v>
       </c>
       <c r="M22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N22" t="s">
         <v>10</v>
@@ -825,11 +839,11 @@
       <c r="K23">
         <v>1</v>
       </c>
-      <c r="L23" t="s">
-        <v>9</v>
+      <c r="L23">
+        <v>1</v>
       </c>
       <c r="M23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N23" t="s">
         <v>10</v>
@@ -842,11 +856,11 @@
       <c r="K24">
         <v>1</v>
       </c>
-      <c r="L24" t="s">
-        <v>10</v>
+      <c r="L24">
+        <v>1</v>
       </c>
       <c r="M24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N24" t="s">
         <v>10</v>
@@ -859,11 +873,11 @@
       <c r="K25">
         <v>2</v>
       </c>
-      <c r="L25" t="s">
-        <v>9</v>
+      <c r="L25">
+        <v>1</v>
       </c>
       <c r="M25" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N25" t="s">
         <v>10</v>
@@ -876,11 +890,11 @@
       <c r="K26">
         <v>2</v>
       </c>
-      <c r="L26" t="s">
-        <v>10</v>
+      <c r="L26">
+        <v>1</v>
       </c>
       <c r="M26" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N26" t="s">
         <v>10</v>
@@ -893,11 +907,11 @@
       <c r="K27">
         <v>2</v>
       </c>
-      <c r="L27" t="s">
-        <v>20</v>
+      <c r="L27">
+        <v>1</v>
       </c>
       <c r="M27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N27" t="s">
         <v>10</v>
@@ -910,11 +924,11 @@
       <c r="K28">
         <v>3</v>
       </c>
-      <c r="L28" t="s">
-        <v>9</v>
+      <c r="L28">
+        <v>1</v>
       </c>
       <c r="M28" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N28" t="s">
         <v>10</v>
@@ -927,11 +941,11 @@
       <c r="K29">
         <v>3</v>
       </c>
-      <c r="L29" t="s">
-        <v>10</v>
+      <c r="L29">
+        <v>1</v>
       </c>
       <c r="M29" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N29" t="s">
         <v>10</v>
@@ -944,11 +958,11 @@
       <c r="K30">
         <v>4</v>
       </c>
-      <c r="L30" t="s">
-        <v>9</v>
+      <c r="L30">
+        <v>1</v>
       </c>
       <c r="M30" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N30" t="s">
         <v>10</v>
@@ -961,7 +975,7 @@
     </row>
     <row r="35" spans="8:11" x14ac:dyDescent="0.15">
       <c r="H35" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I35" t="s">
         <v>0</v>

--- a/qt/DataExporter/data/test.xlsx
+++ b/qt/DataExporter/data/test.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="LOCALE" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="42">
   <si>
     <t>#col2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -123,6 +123,66 @@
   </si>
   <si>
     <t>普通列1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>teststring1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>en</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>teststring2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>teststring3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>teststring4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试串中文1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试串中文2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试串中文3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试串中文4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试串英文1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试串英文2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试串英文3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试串英文4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOCALE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -146,15 +206,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -162,12 +228,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -471,7 +555,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -1099,13 +1183,77 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="C4:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="23.75" customWidth="1"/>
+    <col min="5" max="5" width="29" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>